--- a/06-03-2023/data/output/xlsx/Causality for Category/1.xlsx
+++ b/06-03-2023/data/output/xlsx/Causality for Category/1.xlsx
@@ -49,87 +49,84 @@
     <t>Causality</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0</t>
+    <t>num_of_adds_and_subs__1</t>
   </si>
   <si>
     <t>n/a</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
+    <t>num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__7</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__8</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__9</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__10</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__11</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+  </si>
+  <si>
     <t>num_of_adds_and_subs__12</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__13</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__14</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+  </si>
+  <si>
     <t>num_of_adds_and_subs__15</t>
   </si>
   <si>
@@ -142,187 +139,187 @@
     <t>num_of_adds_and_subs__18</t>
   </si>
   <si>
-    <t>num_of_decimals__0</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
+    <t>num_of_adds_and_subs__19</t>
   </si>
   <si>
     <t>num_of_decimals__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_decimals__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_decimals__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_decimals__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_decimals__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_decimals__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_decimals__7</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_decimals__8</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_decimals__9</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_decimals__10</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_decimals__11</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_decimals__12</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_decimals__13</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_decimals__14</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_decimals__15</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_decimals__16</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_decimals__17</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
   </si>
   <si>
     <t>num_of_decimals__18</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
   </si>
   <si>
     <t>num_of_decimals__19</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
   </si>
   <si>
     <t>num_of_decimals__20</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
   </si>
   <si>
     <t>num_of_decimals__21</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_decimals__22</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_decimals__23</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_decimals__24</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_decimals__25</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_decimals__26</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_decimals__27</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_decimals__28</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_decimals__29</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
-  </si>
-  <si>
-    <t>num_of_equals__0</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+  </si>
+  <si>
+    <t>num_of_decimals__30</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_equals__1</t>
@@ -331,154 +328,154 @@
     <t>num_of_equals__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
-  </si>
-  <si>
     <t>num_of_equals__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_equals__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_equals__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_equals__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_equals__7</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_equals__8</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_equals__9</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_equals__10</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_equals__11</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_equals__12</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+  </si>
+  <si>
     <t>num_of_equals__13</t>
   </si>
   <si>
-    <t>num_of_mults_and_divs__0</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
+    <t>num_of_equals__14</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__7</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__8</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__9</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__10</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__11</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__12</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
+    <t>num_of_adds_and_subs__3,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__13</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__0</t>
+    <t>num_of_adds_and_subs__3,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__14</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__3,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_unknowns__1</t>
@@ -487,42 +484,42 @@
     <t>num_of_unknowns__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
-  </si>
-  <si>
     <t>num_of_unknowns__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_unknowns__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_unknowns__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__3,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_unknowns__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_unknowns__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_unknowns__7</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_unknowns__8</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+  </si>
+  <si>
     <t>num_of_unknowns__9</t>
   </si>
   <si>
@@ -535,88 +532,91 @@
     <t>num_of_unknowns__12</t>
   </si>
   <si>
-    <t>pairs_of_parentheses__0</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
+    <t>num_of_unknowns__13</t>
   </si>
   <si>
     <t>pairs_of_parentheses__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>pairs_of_parentheses__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>pairs_of_parentheses__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>pairs_of_parentheses__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>pairs_of_parentheses__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>pairs_of_parentheses__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>pairs_of_parentheses__7</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>pairs_of_parentheses__8</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>pairs_of_parentheses__9</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>pairs_of_parentheses__10</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>pairs_of_parentheses__11</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__12</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>pairs_of_parentheses__12</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>pairs_of_parentheses__13</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
+  </si>
+  <si>
     <t>pairs_of_parentheses__14</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>Number of Additions And Subtractions Chart</t>

--- a/06-03-2023/data/output/xlsx/Causality for Category/1.xlsx
+++ b/06-03-2023/data/output/xlsx/Causality for Category/1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="215">
   <si>
     <t>Causality Values Chart</t>
   </si>
@@ -61,70 +61,73 @@
     <t>num_of_adds_and_subs__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+    <t>num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__7</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__8</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__9</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__10</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__11</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__12</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+  </si>
+  <si>
     <t>num_of_adds_and_subs__13</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__14</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__15</t>
@@ -145,247 +148,253 @@
     <t>num_of_decimals__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_decimals__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_decimals__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_decimals__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_decimals__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_decimals__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_decimals__7</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_decimals__8</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_decimals__9</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_decimals__10</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_decimals__11</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_decimals__12</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_decimals__13</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_decimals__14</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_decimals__15</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_decimals__16</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_decimals__17</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
   </si>
   <si>
     <t>num_of_decimals__18</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
   </si>
   <si>
     <t>num_of_decimals__19</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
   </si>
   <si>
     <t>num_of_decimals__20</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
   </si>
   <si>
     <t>num_of_decimals__21</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_decimals__22</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_decimals__23</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_decimals__24</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_decimals__25</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_decimals__26</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_decimals__27</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_decimals__28</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__29,num_of_decimals__30,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_decimals__29</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__30,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_decimals__30</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_equals__1</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+  </si>
+  <si>
     <t>num_of_equals__2</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+  </si>
+  <si>
     <t>num_of_equals__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_equals__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_equals__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_equals__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_equals__7</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_equals__8</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_equals__9</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_equals__10</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_equals__11</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_equals__12</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_equals__13</t>
@@ -397,85 +406,85 @@
     <t>num_of_mults_and_divs__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__7</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__8</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__9</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__10</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__11</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__12</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+    <t>num_of_adds_and_subs__3,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__13</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+    <t>num_of_adds_and_subs__3,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__14</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+    <t>num_of_adds_and_subs__3,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_unknowns__1</t>
@@ -487,37 +496,37 @@
     <t>num_of_unknowns__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_unknowns__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__3,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__3,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_unknowns__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_unknowns__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_unknowns__7</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_unknowns__8</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_unknowns__9</t>
@@ -538,79 +547,79 @@
     <t>pairs_of_parentheses__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>pairs_of_parentheses__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>pairs_of_parentheses__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>pairs_of_parentheses__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>pairs_of_parentheses__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>pairs_of_parentheses__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>pairs_of_parentheses__7</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>pairs_of_parentheses__8</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>pairs_of_parentheses__9</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>pairs_of_parentheses__10</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>pairs_of_parentheses__11</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>pairs_of_parentheses__12</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__13</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>pairs_of_parentheses__13</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
   </si>
   <si>
     <t>pairs_of_parentheses__14</t>
@@ -828,34 +837,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0.1154239019407559</c:v>
+                  <c:v>0.05107252298263534</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1077481840193705</c:v>
+                  <c:v>0.05084745762711865</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1618122977346278</c:v>
+                  <c:v>0.07766990291262135</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1717171717171717</c:v>
+                  <c:v>0.08585858585858586</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1809523809523809</c:v>
+                  <c:v>0.09523809523809523</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1772151898734177</c:v>
+                  <c:v>0.1012658227848101</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1730769230769231</c:v>
+                  <c:v>0.1346153846153846</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.2</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.1818181818181818</c:v>
+                  <c:v>0.1363636363636364</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.2222222222222222</c:v>
+                  <c:v>0.1666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.2</c:v>
@@ -924,7 +933,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-                  <a:t>Probability of total failure</a:t>
+                  <a:t>Probability of getting into category 1</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1044,43 +1053,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.2941176470588235</c:v>
+                  <c:v>0.1176470588235294</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3098591549295774</c:v>
+                  <c:v>0.1197183098591549</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.3978494623655914</c:v>
+                  <c:v>0.1505376344086022</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.410958904109589</c:v>
+                  <c:v>0.1643835616438356</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.3888888888888889</c:v>
+                  <c:v>0.1481481481481481</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.3783783783783784</c:v>
+                  <c:v>0.1621621621621622</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.4090909090909091</c:v>
+                  <c:v>0.1818181818181818</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.4705882352941176</c:v>
+                  <c:v>0.1764705882352941</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.3636363636363636</c:v>
+                  <c:v>0.09090909090909091</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.3333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.6666666666666666</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1</c:v>
@@ -1140,7 +1149,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-                  <a:t>Probability of total failure</a:t>
+                  <a:t>Probability of getting into category 1</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1254,34 +1263,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.1173520561685055</c:v>
+                  <c:v>0.05215646940822467</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1140262361251261</c:v>
+                  <c:v>0.05247225025227043</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1576994434137291</c:v>
+                  <c:v>0.07235621521335807</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1744186046511628</c:v>
+                  <c:v>0.0755813953488372</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1862745098039216</c:v>
+                  <c:v>0.09803921568627451</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.2058823529411765</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.2065217391304348</c:v>
+                  <c:v>0.1195652173913044</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1666666666666667</c:v>
+                  <c:v>0.1111111111111111</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.1714285714285714</c:v>
+                  <c:v>0.1142857142857143</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.2941176470588235</c:v>
+                  <c:v>0.2352941176470588</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.2222222222222222</c:v>
@@ -1344,7 +1353,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-                  <a:t>Probability of total failure</a:t>
+                  <a:t>Probability of getting into category 1</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1512,55 +1521,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>0.1527331189710611</c:v>
+                  <c:v>0.06752411575562701</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1626016260162602</c:v>
+                  <c:v>0.07723577235772358</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1863013698630137</c:v>
+                  <c:v>0.08493150684931507</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.225296442687747</c:v>
+                  <c:v>0.09486166007905138</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2275449101796407</c:v>
+                  <c:v>0.1197604790419162</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.2380952380952381</c:v>
+                  <c:v>0.126984126984127</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.2588235294117647</c:v>
+                  <c:v>0.1294117647058824</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.2615384615384616</c:v>
+                  <c:v>0.1230769230769231</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.2926829268292683</c:v>
+                  <c:v>0.1219512195121951</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.3225806451612903</c:v>
+                  <c:v>0.1612903225806452</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.3043478260869565</c:v>
+                  <c:v>0.1739130434782609</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.3333333333333333</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.5</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.4285714285714285</c:v>
+                  <c:v>0.2857142857142857</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.3333333333333333</c:v>
+                  <c:v>0.1666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.3333333333333333</c:v>
+                  <c:v>0.1666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.4</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0.25</c:v>
@@ -1656,7 +1665,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-                  <a:t>Probability of total failure</a:t>
+                  <a:t>Probability of getting into category 1</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1758,28 +1767,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.1182364729458918</c:v>
+                  <c:v>0.05210420841683366</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.09663250366032211</c:v>
+                  <c:v>0.04978038067349927</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2210526315789474</c:v>
+                  <c:v>0.09473684210526316</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.25</c:v>
+                  <c:v>0.1153846153846154</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2608695652173913</c:v>
+                  <c:v>0.1304347826086956</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.2857142857142857</c:v>
+                  <c:v>0.1428571428571428</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.2727272727272727</c:v>
+                  <c:v>0.1818181818181818</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.2857142857142857</c:v>
+                  <c:v>0.1428571428571428</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1836,7 +1845,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-                  <a:t>Probability of total failure</a:t>
+                  <a:t>Probability of getting into category 1</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1953,25 +1962,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.1683417085427136</c:v>
+                  <c:v>0.08542713567839195</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2484076433121019</c:v>
+                  <c:v>0.1210191082802548</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.28</c:v>
+                  <c:v>0.1466666666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3023255813953488</c:v>
+                  <c:v>0.1627906976744186</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.44</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.4705882352941176</c:v>
+                  <c:v>0.2352941176470588</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.5</c:v>
+                  <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.5</c:v>
@@ -2046,7 +2055,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-                  <a:t>Probability of total failure</a:t>
+                  <a:t>Probability of getting into category 1</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2612,10 +2621,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1154239019407559</v>
+        <v>0.05107252298263534</v>
       </c>
       <c r="E3" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
@@ -2633,10 +2642,10 @@
         <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>0.1077481840193705</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="E4" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
@@ -2654,16 +2663,16 @@
         <v>3</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1618122977346278</v>
+        <v>0.07766990291262135</v>
       </c>
       <c r="E5" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="1">
-        <v>0.2727833192687195</v>
+        <v>0.1971379179064487</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2677,16 +2686,16 @@
         <v>4</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1717171717171717</v>
+        <v>0.08585858585858586</v>
       </c>
       <c r="E6" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="1">
-        <v>0.04396502814828592</v>
+        <v>0.03983506783979921</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2700,16 +2709,16 @@
         <v>5</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1809523809523809</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="E7" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G7" s="1">
-        <v>0.05198846460149901</v>
+        <v>0.05097587899567433</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2723,16 +2732,16 @@
         <v>6</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1772151898734177</v>
+        <v>0.1012658227848101</v>
       </c>
       <c r="E8" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="1">
-        <v>-0.001426200734866223</v>
+        <v>0.07579668691355647</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2746,16 +2755,16 @@
         <v>7</v>
       </c>
       <c r="D9" s="1">
-        <v>0.1730769230769231</v>
+        <v>0.1346153846153846</v>
       </c>
       <c r="E9" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G9" s="1">
-        <v>0.002100955162282414</v>
+        <v>0.1062273167193658</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2769,16 +2778,16 @@
         <v>8</v>
       </c>
       <c r="D10" s="1">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="E10" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G10" s="1">
-        <v>0.01790605202353873</v>
+        <v>0.1050907795559483</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2792,16 +2801,16 @@
         <v>9</v>
       </c>
       <c r="D11" s="1">
-        <v>0.1818181818181818</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="E11" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G11" s="1">
-        <v>0.1163246279228033</v>
+        <v>0.2062529635897496</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2815,16 +2824,16 @@
         <v>10</v>
       </c>
       <c r="D12" s="1">
-        <v>0.2222222222222222</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E12" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G12" s="1">
-        <v>0.1357002791037796</v>
+        <v>0.2218415662636622</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2841,13 +2850,13 @@
         <v>0.2</v>
       </c>
       <c r="E13" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G13" s="1">
-        <v>0.22068014946043</v>
+        <v>0.3167777142216242</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2864,16 +2873,18 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="E14" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1" t="s">
-        <v>10</v>
+        <v>0.05210420841683366</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="1">
+        <v>-0.04695912674028499</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" s="1">
         <v>8</v>
@@ -2885,18 +2896,18 @@
         <v>0.125</v>
       </c>
       <c r="E15" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G15" s="1">
-        <v>-0.1437813470134131</v>
+        <v>-0.02128249701376421</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B16" s="1">
         <v>7</v>
@@ -2908,18 +2919,18 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="E16" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G16" s="1">
-        <v>-0.1304966712735364</v>
+        <v>-0.008301390051965923</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B17" s="1">
         <v>6</v>
@@ -2931,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
@@ -2940,7 +2951,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B18" s="1">
         <v>4</v>
@@ -2952,7 +2963,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
@@ -2961,7 +2972,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B19" s="1">
         <v>2</v>
@@ -2973,7 +2984,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
@@ -2982,7 +2993,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B20" s="1">
         <v>2</v>
@@ -2994,7 +3005,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
@@ -3003,7 +3014,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B21" s="1">
         <v>2</v>
@@ -3015,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
@@ -3024,7 +3035,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B22" s="1">
         <v>622</v>
@@ -3033,21 +3044,21 @@
         <v>20</v>
       </c>
       <c r="D22" s="1">
-        <v>0.1527331189710611</v>
+        <v>0.06752411575562701</v>
       </c>
       <c r="E22" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22" s="1">
-        <v>0.3597743135076213</v>
+        <v>0.2696908268624011</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B23" s="1">
         <v>492</v>
@@ -3056,21 +3067,21 @@
         <v>21</v>
       </c>
       <c r="D23" s="1">
-        <v>0.1626016260162602</v>
+        <v>0.07723577235772358</v>
       </c>
       <c r="E23" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G23" s="1">
-        <v>0.3670197925146259</v>
+        <v>0.2877757526179405</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B24" s="1">
         <v>365</v>
@@ -3079,21 +3090,21 @@
         <v>22</v>
       </c>
       <c r="D24" s="1">
-        <v>0.1863013698630137</v>
+        <v>0.08493150684931507</v>
       </c>
       <c r="E24" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G24" s="1">
-        <v>0.3716254506788839</v>
+        <v>0.2794179199560665</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25" s="1">
         <v>253</v>
@@ -3102,21 +3113,21 @@
         <v>23</v>
       </c>
       <c r="D25" s="1">
-        <v>0.225296442687747</v>
+        <v>0.09486166007905138</v>
       </c>
       <c r="E25" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G25" s="1">
-        <v>0.340949780788309</v>
+        <v>0.2427122474349251</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B26" s="1">
         <v>167</v>
@@ -3125,21 +3136,21 @@
         <v>24</v>
       </c>
       <c r="D26" s="1">
-        <v>0.2275449101796407</v>
+        <v>0.1197604790419162</v>
       </c>
       <c r="E26" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G26" s="1">
-        <v>0.3219507615319199</v>
+        <v>0.2607401105119176</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B27" s="1">
         <v>126</v>
@@ -3148,21 +3159,21 @@
         <v>25</v>
       </c>
       <c r="D27" s="1">
-        <v>0.2380952380952381</v>
+        <v>0.126984126984127</v>
       </c>
       <c r="E27" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G27" s="1">
-        <v>0.3196684907686026</v>
+        <v>0.2720537241678342</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B28" s="1">
         <v>85</v>
@@ -3171,21 +3182,21 @@
         <v>26</v>
       </c>
       <c r="D28" s="1">
-        <v>0.2588235294117647</v>
+        <v>0.1294117647058824</v>
       </c>
       <c r="E28" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G28" s="1">
-        <v>0.1590374024666422</v>
+        <v>0.1443759509483696</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B29" s="1">
         <v>65</v>
@@ -3194,21 +3205,21 @@
         <v>27</v>
       </c>
       <c r="D29" s="1">
-        <v>0.2615384615384616</v>
+        <v>0.1230769230769231</v>
       </c>
       <c r="E29" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G29" s="1">
-        <v>0.1050616649705745</v>
+        <v>0.1573227829876679</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B30" s="1">
         <v>41</v>
@@ -3217,21 +3228,21 @@
         <v>28</v>
       </c>
       <c r="D30" s="1">
-        <v>0.2926829268292683</v>
+        <v>0.1219512195121951</v>
       </c>
       <c r="E30" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G30" s="1">
-        <v>0.09058690838264651</v>
+        <v>0.1401221580901732</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B31" s="1">
         <v>31</v>
@@ -3240,21 +3251,21 @@
         <v>29</v>
       </c>
       <c r="D31" s="1">
-        <v>0.3225806451612903</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="E31" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G31" s="1">
-        <v>0.1383316961188536</v>
+        <v>0.1750808522805905</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B32" s="1">
         <v>23</v>
@@ -3263,21 +3274,21 @@
         <v>30</v>
       </c>
       <c r="D32" s="1">
-        <v>0.3043478260869565</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="E32" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G32" s="1">
-        <v>0.1516881837969895</v>
+        <v>0.1938666855085956</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B33" s="1">
         <v>15</v>
@@ -3286,21 +3297,21 @@
         <v>31</v>
       </c>
       <c r="D33" s="1">
-        <v>0.3333333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="E33" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G33" s="1">
-        <v>0.1536957872827135</v>
+        <v>0.2055753907704998</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B34" s="1">
         <v>10</v>
@@ -3309,21 +3320,21 @@
         <v>32</v>
       </c>
       <c r="D34" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="E34" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G34" s="1">
-        <v>0.2131526928173499</v>
+        <v>0.2422109025803638</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B35" s="1">
         <v>7</v>
@@ -3332,21 +3343,21 @@
         <v>33</v>
       </c>
       <c r="D35" s="1">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E35" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G35" s="1">
-        <v>0.1985679720330568</v>
+        <v>0.2610619543683011</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B36" s="1">
         <v>6</v>
@@ -3355,21 +3366,21 @@
         <v>34</v>
       </c>
       <c r="D36" s="1">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E36" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G36" s="1">
-        <v>0.03688457227263652</v>
+        <v>0.05769933856194666</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B37" s="1">
         <v>6</v>
@@ -3378,21 +3389,21 @@
         <v>35</v>
       </c>
       <c r="D37" s="1">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E37" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G37" s="1">
-        <v>0.03688457227263652</v>
+        <v>0.05769933856194666</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B38" s="1">
         <v>5</v>
@@ -3401,21 +3412,21 @@
         <v>36</v>
       </c>
       <c r="D38" s="1">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="E38" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G38" s="1">
-        <v>0.2138893613415762</v>
+        <v>0.2186105516136773</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B39" s="1">
         <v>4</v>
@@ -3427,18 +3438,18 @@
         <v>0.25</v>
       </c>
       <c r="E39" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G39" s="1">
-        <v>0.1151557736447861</v>
+        <v>0.2441595839627916</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B40" s="1">
         <v>4</v>
@@ -3450,18 +3461,18 @@
         <v>0.25</v>
       </c>
       <c r="E40" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G40" s="1">
-        <v>0.1151557736447861</v>
+        <v>0.2441595839627916</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B41" s="1">
         <v>3</v>
@@ -3473,18 +3484,18 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="E41" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G41" s="1">
-        <v>0.189357068200768</v>
+        <v>0.303340658657556</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B42" s="1">
         <v>2</v>
@@ -3496,18 +3507,18 @@
         <v>0.5</v>
       </c>
       <c r="E42" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G42" s="1">
-        <v>0.4090431078937579</v>
+        <v>0.5093030417769508</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B43" s="1">
         <v>2</v>
@@ -3519,18 +3530,18 @@
         <v>0.5</v>
       </c>
       <c r="E43" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G43" s="1">
-        <v>0.4090431078937579</v>
+        <v>0.5093030417769508</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B44" s="1">
         <v>2</v>
@@ -3542,18 +3553,18 @@
         <v>0.5</v>
       </c>
       <c r="E44" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G44" s="1">
-        <v>0.4090431078937579</v>
+        <v>0.5093030417769508</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B45" s="1">
         <v>2</v>
@@ -3565,18 +3576,18 @@
         <v>0.5</v>
       </c>
       <c r="E45" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G45" s="1">
-        <v>0.4090431078937579</v>
+        <v>0.5093030417769508</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B46" s="1">
         <v>1</v>
@@ -3588,18 +3599,18 @@
         <v>1</v>
       </c>
       <c r="E46" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G46" s="1">
-        <v>0.8136295564642353</v>
+        <v>0.9096192247102388</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B47" s="1">
         <v>1</v>
@@ -3611,18 +3622,18 @@
         <v>1</v>
       </c>
       <c r="E47" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G47" s="1">
-        <v>0.8136295564642353</v>
+        <v>0.9096192247102388</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B48" s="1">
         <v>1</v>
@@ -3634,18 +3645,18 @@
         <v>1</v>
       </c>
       <c r="E48" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G48" s="1">
-        <v>0.8136295564642353</v>
+        <v>0.9096192247102388</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B49" s="1">
         <v>1</v>
@@ -3657,18 +3668,18 @@
         <v>1</v>
       </c>
       <c r="E49" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G49" s="1">
-        <v>0.8136295564642353</v>
+        <v>0.9096192247102388</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B50" s="1">
         <v>1</v>
@@ -3680,18 +3691,18 @@
         <v>1</v>
       </c>
       <c r="E50" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G50" s="1">
-        <v>0.8136295564642353</v>
+        <v>0.9096192247102388</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B51" s="1">
         <v>1</v>
@@ -3703,18 +3714,18 @@
         <v>1</v>
       </c>
       <c r="E51" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G51" s="1">
-        <v>0.8136295564642353</v>
+        <v>0.9096192247102388</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B52" s="1">
         <v>997</v>
@@ -3723,19 +3734,21 @@
         <v>50</v>
       </c>
       <c r="D52" s="1">
-        <v>0.1173520561685055</v>
+        <v>0.05215646940822467</v>
       </c>
       <c r="E52" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1" t="s">
-        <v>10</v>
+        <v>0.05210420841683366</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0.2778937267867398</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B53" s="1">
         <v>991</v>
@@ -3744,19 +3757,21 @@
         <v>51</v>
       </c>
       <c r="D53" s="1">
-        <v>0.1140262361251261</v>
+        <v>0.05247225025227043</v>
       </c>
       <c r="E53" s="1">
-        <v>0.1182364729458918</v>
-      </c>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1" t="s">
-        <v>10</v>
+        <v>0.05210420841683366</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0.2780095833991512</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B54" s="1">
         <v>539</v>
@@ -3765,21 +3780,21 @@
         <v>52</v>
       </c>
       <c r="D54" s="1">
-        <v>0.1576994434137291</v>
+        <v>0.07235621521335807</v>
       </c>
       <c r="E54" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G54" s="1">
-        <v>0.3673888682675178</v>
+        <v>0.2672568680495655</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B55" s="1">
         <v>344</v>
@@ -3788,21 +3803,21 @@
         <v>53</v>
       </c>
       <c r="D55" s="1">
-        <v>0.1744186046511628</v>
+        <v>0.0755813953488372</v>
       </c>
       <c r="E55" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G55" s="1">
-        <v>0.3300922869311043</v>
+        <v>0.2340317176014358</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B56" s="1">
         <v>204</v>
@@ -3811,21 +3826,21 @@
         <v>54</v>
       </c>
       <c r="D56" s="1">
-        <v>0.1862745098039216</v>
+        <v>0.09803921568627451</v>
       </c>
       <c r="E56" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G56" s="1">
-        <v>0.3027522766402866</v>
+        <v>0.2527811917922111</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B57" s="1">
         <v>136</v>
@@ -3834,21 +3849,21 @@
         <v>55</v>
       </c>
       <c r="D57" s="1">
-        <v>0.2058823529411765</v>
+        <v>0.125</v>
       </c>
       <c r="E57" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G57" s="1">
-        <v>0.2195622224247686</v>
+        <v>0.2581217488187874</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B58" s="1">
         <v>92</v>
@@ -3857,21 +3872,21 @@
         <v>56</v>
       </c>
       <c r="D58" s="1">
-        <v>0.2065217391304348</v>
+        <v>0.1195652173913044</v>
       </c>
       <c r="E58" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G58" s="1">
-        <v>0.006807385318748725</v>
+        <v>0.04937587954718692</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B59" s="1">
         <v>54</v>
@@ -3880,21 +3895,21 @@
         <v>57</v>
       </c>
       <c r="D59" s="1">
-        <v>0.1666666666666667</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E59" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G59" s="1">
-        <v>-0.03959146333376289</v>
+        <v>0.06864659390642797</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B60" s="1">
         <v>35</v>
@@ -3903,21 +3918,21 @@
         <v>58</v>
       </c>
       <c r="D60" s="1">
-        <v>0.1714285714285714</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="E60" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G60" s="1">
-        <v>0.02588791952399999</v>
+        <v>0.09450816534266281</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B61" s="1">
         <v>17</v>
@@ -3926,21 +3941,21 @@
         <v>59</v>
       </c>
       <c r="D61" s="1">
-        <v>0.2941176470588235</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="E61" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G61" s="1">
-        <v>0.1875149696999136</v>
+        <v>0.2539126053830982</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B62" s="1">
         <v>9</v>
@@ -3952,18 +3967,18 @@
         <v>0.2222222222222222</v>
       </c>
       <c r="E62" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G62" s="1">
-        <v>0.2194953726810285</v>
+        <v>0.316693605014075</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B63" s="1">
         <v>5</v>
@@ -3975,18 +3990,18 @@
         <v>0.4</v>
       </c>
       <c r="E63" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G63" s="1">
-        <v>0.3125000158031025</v>
+        <v>0.408223177508114</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B64" s="1">
         <v>1</v>
@@ -3998,7 +4013,7 @@
         <v>0</v>
       </c>
       <c r="E64" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1" t="s">
@@ -4007,7 +4022,7 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B65" s="1">
         <v>1</v>
@@ -4019,7 +4034,7 @@
         <v>0</v>
       </c>
       <c r="E65" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1" t="s">
@@ -4028,7 +4043,7 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B66" s="1">
         <v>187</v>
@@ -4037,21 +4052,21 @@
         <v>64</v>
       </c>
       <c r="D66" s="1">
-        <v>0.2941176470588235</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="E66" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G66" s="1">
-        <v>0.3664524691114739</v>
+        <v>0.3361590401109674</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B67" s="1">
         <v>142</v>
@@ -4060,21 +4075,21 @@
         <v>65</v>
       </c>
       <c r="D67" s="1">
-        <v>0.3098591549295774</v>
+        <v>0.1197183098591549</v>
       </c>
       <c r="E67" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G67" s="1">
-        <v>0.3634017455864725</v>
+        <v>0.3406457342728653</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B68" s="1">
         <v>93</v>
@@ -4083,21 +4098,21 @@
         <v>66</v>
       </c>
       <c r="D68" s="1">
-        <v>0.3978494623655914</v>
+        <v>0.1505376344086022</v>
       </c>
       <c r="E68" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G68" s="1">
-        <v>0.2645280432755807</v>
+        <v>0.2182107935321124</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B69" s="1">
         <v>73</v>
@@ -4106,21 +4121,21 @@
         <v>67</v>
       </c>
       <c r="D69" s="1">
-        <v>0.410958904109589</v>
+        <v>0.1643835616438356</v>
       </c>
       <c r="E69" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G69" s="1">
-        <v>0.02229716350667993</v>
+        <v>-0.01641065609310388</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B70" s="1">
         <v>54</v>
@@ -4129,21 +4144,21 @@
         <v>68</v>
       </c>
       <c r="D70" s="1">
-        <v>0.3888888888888889</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="E70" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G70" s="1">
-        <v>-0.001283195171427189</v>
+        <v>-0.03385563257427118</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B71" s="1">
         <v>37</v>
@@ -4152,21 +4167,21 @@
         <v>69</v>
       </c>
       <c r="D71" s="1">
-        <v>0.3783783783783784</v>
+        <v>0.1621621621621622</v>
       </c>
       <c r="E71" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G71" s="1">
-        <v>-0.03755689691814381</v>
+        <v>-0.03318801404692402</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B72" s="1">
         <v>22</v>
@@ -4175,21 +4190,21 @@
         <v>70</v>
       </c>
       <c r="D72" s="1">
-        <v>0.4090909090909091</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="E72" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G72" s="1">
-        <v>0.2650600303332109</v>
+        <v>0.1838708287154647</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B73" s="1">
         <v>17</v>
@@ -4198,21 +4213,21 @@
         <v>71</v>
       </c>
       <c r="D73" s="1">
-        <v>0.4705882352941176</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="E73" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G73" s="1">
-        <v>0.2805305550376063</v>
+        <v>0.1621036126703076</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B74" s="1">
         <v>11</v>
@@ -4221,21 +4236,21 @@
         <v>72</v>
       </c>
       <c r="D74" s="1">
-        <v>0.3636363636363636</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="E74" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G74" s="1">
-        <v>0.1937028384223447</v>
+        <v>0.09203238324365114</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B75" s="1">
         <v>8</v>
@@ -4244,21 +4259,21 @@
         <v>73</v>
       </c>
       <c r="D75" s="1">
-        <v>0.5</v>
+        <v>0.125</v>
       </c>
       <c r="E75" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G75" s="1">
-        <v>0.2908582581687248</v>
+        <v>0.1408997685988556</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B76" s="1">
         <v>5</v>
@@ -4267,21 +4282,21 @@
         <v>74</v>
       </c>
       <c r="D76" s="1">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="E76" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G76" s="1">
-        <v>0.366724082252019</v>
+        <v>0.193902463536908</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B77" s="1">
         <v>3</v>
@@ -4290,21 +4305,21 @@
         <v>75</v>
       </c>
       <c r="D77" s="1">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E77" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G77" s="1">
-        <v>0.4169107027061379</v>
+        <v>0.3107189298023004</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B78" s="1">
         <v>2</v>
@@ -4313,21 +4328,21 @@
         <v>76</v>
       </c>
       <c r="D78" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E78" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G78" s="1">
-        <v>0.7249100023254712</v>
+        <v>0.4648106025215658</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B79" s="1">
         <v>1</v>
@@ -4339,18 +4354,18 @@
         <v>1</v>
       </c>
       <c r="E79" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G79" s="1">
-        <v>0.673090631224036</v>
+        <v>0.8561046536252966</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B80" s="1">
         <v>998</v>
@@ -4359,10 +4374,10 @@
         <v>78</v>
       </c>
       <c r="D80" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="E80" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F80" s="1"/>
       <c r="G80" s="1" t="s">
@@ -4371,7 +4386,7 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B81" s="1">
         <v>683</v>
@@ -4380,10 +4395,10 @@
         <v>79</v>
       </c>
       <c r="D81" s="1">
-        <v>0.09663250366032211</v>
+        <v>0.04978038067349927</v>
       </c>
       <c r="E81" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F81" s="1"/>
       <c r="G81" s="1" t="s">
@@ -4392,7 +4407,7 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B82" s="1">
         <v>95</v>
@@ -4401,21 +4416,21 @@
         <v>80</v>
       </c>
       <c r="D82" s="1">
-        <v>0.2210526315789474</v>
+        <v>0.09473684210526316</v>
       </c>
       <c r="E82" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G82" s="1">
-        <v>0.09309882402463604</v>
+        <v>0.07898606916857638</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B83" s="1">
         <v>52</v>
@@ -4424,21 +4439,21 @@
         <v>81</v>
       </c>
       <c r="D83" s="1">
-        <v>0.25</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="E83" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G83" s="1">
-        <v>0.07122170613459007</v>
+        <v>0.106131839459203</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B84" s="1">
         <v>23</v>
@@ -4447,21 +4462,21 @@
         <v>82</v>
       </c>
       <c r="D84" s="1">
-        <v>0.2608695652173913</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="E84" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G84" s="1">
-        <v>-0.1423751968414143</v>
+        <v>-0.1196036077097347</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B85" s="1">
         <v>14</v>
@@ -4470,21 +4485,21 @@
         <v>83</v>
       </c>
       <c r="D85" s="1">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="E85" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G85" s="1">
-        <v>-0.1706320154812546</v>
+        <v>-0.1030560940344993</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B86" s="1">
         <v>11</v>
@@ -4493,21 +4508,21 @@
         <v>84</v>
       </c>
       <c r="D86" s="1">
-        <v>0.2727272727272727</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="E86" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G86" s="1">
-        <v>-0.1830514342900541</v>
+        <v>-0.0846596713369084</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B87" s="1">
         <v>7</v>
@@ -4516,21 +4531,21 @@
         <v>85</v>
       </c>
       <c r="D87" s="1">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="E87" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G87" s="1">
-        <v>-0.1738661755688989</v>
+        <v>-0.08724330311808966</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B88" s="1">
         <v>5</v>
@@ -4542,7 +4557,7 @@
         <v>0</v>
       </c>
       <c r="E88" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F88" s="1"/>
       <c r="G88" s="1" t="s">
@@ -4551,7 +4566,7 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B89" s="1">
         <v>3</v>
@@ -4563,7 +4578,7 @@
         <v>0</v>
       </c>
       <c r="E89" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F89" s="1"/>
       <c r="G89" s="1" t="s">
@@ -4572,7 +4587,7 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B90" s="1">
         <v>2</v>
@@ -4584,7 +4599,7 @@
         <v>0</v>
       </c>
       <c r="E90" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F90" s="1"/>
       <c r="G90" s="1" t="s">
@@ -4593,7 +4608,7 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B91" s="1">
         <v>1</v>
@@ -4605,7 +4620,7 @@
         <v>0</v>
       </c>
       <c r="E91" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="1" t="s">
@@ -4614,7 +4629,7 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B92" s="1">
         <v>1</v>
@@ -4626,7 +4641,7 @@
         <v>0</v>
       </c>
       <c r="E92" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F92" s="1"/>
       <c r="G92" s="1" t="s">
@@ -4635,7 +4650,7 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B93" s="1">
         <v>398</v>
@@ -4644,21 +4659,21 @@
         <v>91</v>
       </c>
       <c r="D93" s="1">
-        <v>0.1683417085427136</v>
+        <v>0.08542713567839195</v>
       </c>
       <c r="E93" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G93" s="1">
-        <v>0.2639558506858136</v>
+        <v>0.2608294495285615</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B94" s="1">
         <v>157</v>
@@ -4667,21 +4682,21 @@
         <v>92</v>
       </c>
       <c r="D94" s="1">
-        <v>0.2484076433121019</v>
+        <v>0.1210191082802548</v>
       </c>
       <c r="E94" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G94" s="1">
-        <v>0.2344336330390098</v>
+        <v>0.2397786980863646</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B95" s="1">
         <v>75</v>
@@ -4690,21 +4705,21 @@
         <v>93</v>
       </c>
       <c r="D95" s="1">
-        <v>0.28</v>
+        <v>0.1466666666666667</v>
       </c>
       <c r="E95" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G95" s="1">
-        <v>0.2384752203207653</v>
+        <v>0.2382763303838786</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B96" s="1">
         <v>43</v>
@@ -4713,21 +4728,21 @@
         <v>94</v>
       </c>
       <c r="D96" s="1">
-        <v>0.3023255813953488</v>
+        <v>0.1627906976744186</v>
       </c>
       <c r="E96" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G96" s="1">
-        <v>0.3080788136143142</v>
+        <v>0.3175300309140255</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B97" s="1">
         <v>25</v>
@@ -4736,21 +4751,21 @@
         <v>95</v>
       </c>
       <c r="D97" s="1">
-        <v>0.44</v>
+        <v>0.24</v>
       </c>
       <c r="E97" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="G97" s="1">
-        <v>0.3805743410971369</v>
+        <v>0.3615587148166564</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B98" s="1">
         <v>17</v>
@@ -4759,21 +4774,21 @@
         <v>96</v>
       </c>
       <c r="D98" s="1">
-        <v>0.4705882352941176</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="E98" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G98" s="1">
-        <v>0.3946693188079062</v>
+        <v>0.3550576046571401</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B99" s="1">
         <v>8</v>
@@ -4782,21 +4797,21 @@
         <v>97</v>
       </c>
       <c r="D99" s="1">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="E99" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G99" s="1">
-        <v>0.4140222150985492</v>
+        <v>0.462117135191467</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B100" s="1">
         <v>4</v>
@@ -4808,18 +4823,18 @@
         <v>0.5</v>
       </c>
       <c r="E100" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G100" s="1">
-        <v>0.1998139428158307</v>
+        <v>0.3540763347509622</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B101" s="1">
         <v>3</v>
@@ -4831,18 +4846,18 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E101" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="G101" s="1">
-        <v>0.3518934397631862</v>
+        <v>0.5046207379785197</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B102" s="1">
         <v>3</v>
@@ -4854,18 +4869,18 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E102" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G102" s="1">
-        <v>0.3518934397631862</v>
+        <v>0.5046207379785197</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B103" s="1">
         <v>3</v>
@@ -4877,18 +4892,18 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E103" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G103" s="1">
-        <v>0.3518934397631862</v>
+        <v>0.5046207379785197</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B104" s="1">
         <v>3</v>
@@ -4900,18 +4915,18 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E104" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G104" s="1">
-        <v>0.3518934397631862</v>
+        <v>0.5046207379785197</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B105" s="1">
         <v>2</v>
@@ -4923,18 +4938,18 @@
         <v>0.5</v>
       </c>
       <c r="E105" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="G105" s="1">
-        <v>0.04761986065026028</v>
+        <v>0.1974372923785956</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B106" s="1">
         <v>1</v>
@@ -4946,7 +4961,7 @@
         <v>0</v>
       </c>
       <c r="E106" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F106" s="1"/>
       <c r="G106" s="1" t="s">
@@ -4955,7 +4970,7 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B107" s="1">
         <v>1</v>
@@ -4967,7 +4982,7 @@
         <v>0</v>
       </c>
       <c r="E107" s="1">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F107" s="1"/>
       <c r="G107" s="1" t="s">
@@ -4992,7 +5007,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -5015,25 +5030,25 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -5047,13 +5062,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.1154239019407559</v>
+        <v>0.05107252298263534</v>
       </c>
       <c r="E4" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F4" s="1">
-        <v>-0.002812571005135905</v>
+        <v>-0.001031685434198321</v>
       </c>
       <c r="G4" s="1">
         <f>1/(POWER(B4,1.5))</f>
@@ -5090,13 +5105,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1077481840193705</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F5" s="1">
-        <v>-0.01048828892652132</v>
+        <v>-0.001256750789715017</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -5133,13 +5148,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.1618122977346278</v>
+        <v>0.07766990291262135</v>
       </c>
       <c r="E6" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F6" s="1">
-        <v>0.04357582478873605</v>
+        <v>0.02556569449578769</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -5176,13 +5191,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.1717171717171717</v>
+        <v>0.08585858585858586</v>
       </c>
       <c r="E7" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F7" s="1">
-        <v>0.05348069877127994</v>
+        <v>0.03375437744175219</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -5219,13 +5234,13 @@
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>0.1809523809523809</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="E8" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F8" s="1">
-        <v>0.06271590800648917</v>
+        <v>0.04313388682126157</v>
       </c>
       <c r="G8" s="1">
         <f>1/(POWER(B8,1.5))</f>
@@ -5262,13 +5277,13 @@
         <v>6</v>
       </c>
       <c r="D9" s="3">
-        <v>0.1772151898734177</v>
+        <v>0.1012658227848101</v>
       </c>
       <c r="E9" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F9" s="1">
-        <v>0.05897871692752595</v>
+        <v>0.04916161436797646</v>
       </c>
       <c r="G9" s="1">
         <f>1/(POWER(B9,1.5))</f>
@@ -5305,13 +5320,13 @@
         <v>7</v>
       </c>
       <c r="D10" s="3">
-        <v>0.1730769230769231</v>
+        <v>0.1346153846153846</v>
       </c>
       <c r="E10" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F10" s="1">
-        <v>0.0548404501310313</v>
+        <v>0.08251117619855095</v>
       </c>
       <c r="G10" s="1">
         <f>1/(POWER(B10,1.5))</f>
@@ -5348,13 +5363,13 @@
         <v>8</v>
       </c>
       <c r="D11" s="3">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="E11" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F11" s="1">
-        <v>0.08176352705410823</v>
+        <v>0.09789579158316633</v>
       </c>
       <c r="G11" s="1">
         <f>1/(POWER(B11,1.5))</f>
@@ -5391,13 +5406,13 @@
         <v>9</v>
       </c>
       <c r="D12" s="3">
-        <v>0.1818181818181818</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="E12" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F12" s="1">
-        <v>0.06358170887229005</v>
+        <v>0.08425942794680269</v>
       </c>
       <c r="G12" s="1">
         <f>1/(POWER(B12,1.5))</f>
@@ -5434,13 +5449,13 @@
         <v>10</v>
       </c>
       <c r="D13" s="3">
-        <v>0.2222222222222222</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E13" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F13" s="1">
-        <v>0.1039857492763304</v>
+        <v>0.114562458249833</v>
       </c>
       <c r="G13" s="1">
         <f>1/(POWER(B13,1.5))</f>
@@ -5480,10 +5495,10 @@
         <v>0.2</v>
       </c>
       <c r="E14" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F14" s="1">
-        <v>0.08176352705410823</v>
+        <v>0.1478957915831663</v>
       </c>
       <c r="G14" s="1">
         <f>1/(POWER(B14,1.5))</f>
@@ -5523,10 +5538,10 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="E15" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F15" s="1">
-        <v>-0.007125361834780672</v>
+        <v>0.05900690269427744</v>
       </c>
       <c r="G15" s="1">
         <f>1/(POWER(B15,1.5))</f>
@@ -5554,7 +5569,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B16" s="3">
         <v>8</v>
@@ -5566,10 +5581,10 @@
         <v>0.125</v>
       </c>
       <c r="E16" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F16" s="1">
-        <v>0.006763527054108223</v>
+        <v>0.07289579158316634</v>
       </c>
       <c r="G16" s="1">
         <f>1/(POWER(B16,1.5))</f>
@@ -5597,7 +5612,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B17" s="3">
         <v>7</v>
@@ -5609,10 +5624,10 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="E17" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F17" s="1">
-        <v>0.02462066991125107</v>
+        <v>0.09075293444030919</v>
       </c>
       <c r="G17" s="1">
         <f>1/(POWER(B17,1.5))</f>
@@ -5657,7 +5672,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -5680,30 +5695,30 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B4" s="3">
         <v>187</v>
@@ -5712,13 +5727,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.2941176470588235</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="E4" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F4" s="1">
-        <v>0.1758811741129317</v>
+        <v>0.06554285040669575</v>
       </c>
       <c r="G4" s="1">
         <f>1/(POWER(B4,1.5))</f>
@@ -5746,7 +5761,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B5" s="3">
         <v>142</v>
@@ -5755,13 +5770,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.3098591549295774</v>
+        <v>0.1197183098591549</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F5" s="1">
-        <v>0.1916226819836856</v>
+        <v>0.06761410144232126</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -5789,7 +5804,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B6" s="3">
         <v>93</v>
@@ -5798,13 +5813,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.3978494623655914</v>
+        <v>0.1505376344086022</v>
       </c>
       <c r="E6" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F6" s="1">
-        <v>0.2796129894196996</v>
+        <v>0.09843342599176849</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -5832,7 +5847,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B7" s="3">
         <v>73</v>
@@ -5841,13 +5856,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.410958904109589</v>
+        <v>0.1643835616438356</v>
       </c>
       <c r="E7" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F7" s="1">
-        <v>0.2927224311636972</v>
+        <v>0.1122793532270019</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -5875,7 +5890,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B8" s="3">
         <v>54</v>
@@ -5884,13 +5899,13 @@
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>0.3888888888888889</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="E8" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F8" s="1">
-        <v>0.2706524159429971</v>
+        <v>0.09604393973131448</v>
       </c>
       <c r="G8" s="1">
         <f>1/(POWER(B8,1.5))</f>
@@ -5918,7 +5933,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B9" s="3">
         <v>37</v>
@@ -5927,13 +5942,13 @@
         <v>6</v>
       </c>
       <c r="D9" s="3">
-        <v>0.3783783783783784</v>
+        <v>0.1621621621621622</v>
       </c>
       <c r="E9" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F9" s="1">
-        <v>0.2601419054324866</v>
+        <v>0.1100579537453285</v>
       </c>
       <c r="G9" s="1">
         <f>1/(POWER(B9,1.5))</f>
@@ -5961,7 +5976,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B10" s="3">
         <v>22</v>
@@ -5970,13 +5985,13 @@
         <v>7</v>
       </c>
       <c r="D10" s="3">
-        <v>0.4090909090909091</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="E10" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F10" s="1">
-        <v>0.2908544361450173</v>
+        <v>0.1297139734013482</v>
       </c>
       <c r="G10" s="1">
         <f>1/(POWER(B10,1.5))</f>
@@ -6004,7 +6019,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B11" s="3">
         <v>17</v>
@@ -6013,13 +6028,13 @@
         <v>8</v>
       </c>
       <c r="D11" s="3">
-        <v>0.4705882352941176</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="E11" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F11" s="1">
-        <v>0.3523517623482258</v>
+        <v>0.1243663798184605</v>
       </c>
       <c r="G11" s="1">
         <f>1/(POWER(B11,1.5))</f>
@@ -6047,7 +6062,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B12" s="3">
         <v>11</v>
@@ -6056,13 +6071,13 @@
         <v>9</v>
       </c>
       <c r="D12" s="3">
-        <v>0.3636363636363636</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="E12" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F12" s="1">
-        <v>0.2453998906904719</v>
+        <v>0.03880488249225725</v>
       </c>
       <c r="G12" s="1">
         <f>1/(POWER(B12,1.5))</f>
@@ -6090,7 +6105,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B13" s="3">
         <v>8</v>
@@ -6099,13 +6114,13 @@
         <v>10</v>
       </c>
       <c r="D13" s="3">
-        <v>0.5</v>
+        <v>0.125</v>
       </c>
       <c r="E13" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F13" s="1">
-        <v>0.3817635270541082</v>
+        <v>0.07289579158316634</v>
       </c>
       <c r="G13" s="1">
         <f>1/(POWER(B13,1.5))</f>
@@ -6133,7 +6148,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="3" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B14" s="3">
         <v>5</v>
@@ -6142,13 +6157,13 @@
         <v>11</v>
       </c>
       <c r="D14" s="3">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="E14" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F14" s="1">
-        <v>0.4817635270541082</v>
+        <v>0.1478957915831663</v>
       </c>
       <c r="G14" s="1">
         <f>1/(POWER(B14,1.5))</f>
@@ -6176,7 +6191,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B15" s="3">
         <v>3</v>
@@ -6185,13 +6200,13 @@
         <v>12</v>
       </c>
       <c r="D15" s="3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E15" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F15" s="1">
-        <v>0.5484301937207748</v>
+        <v>0.2812291249164997</v>
       </c>
       <c r="G15" s="1">
         <f>1/(POWER(B15,1.5))</f>
@@ -6219,7 +6234,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B16" s="3">
         <v>2</v>
@@ -6228,13 +6243,13 @@
         <v>13</v>
       </c>
       <c r="D16" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E16" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F16" s="1">
-        <v>0.8817635270541082</v>
+        <v>0.4478957915831663</v>
       </c>
       <c r="G16" s="1">
         <f>1/(POWER(B16,1.5))</f>
@@ -6262,7 +6277,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B17" s="3">
         <v>1</v>
@@ -6274,10 +6289,10 @@
         <v>1</v>
       </c>
       <c r="E17" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F17" s="1">
-        <v>0.8817635270541082</v>
+        <v>0.9478957915831663</v>
       </c>
       <c r="G17" s="1">
         <f>1/(POWER(B17,1.5))</f>
@@ -6322,7 +6337,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -6345,30 +6360,30 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B4" s="3">
         <v>997</v>
@@ -6377,13 +6392,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.1173520561685055</v>
+        <v>0.05215646940822467</v>
       </c>
       <c r="E4" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F4" s="1">
-        <v>-0.0008844167773862655</v>
+        <v>5.226099139100937E-05</v>
       </c>
       <c r="G4" s="1">
         <f>1/(POWER(B4,1.5))</f>
@@ -6411,7 +6426,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B5" s="3">
         <v>991</v>
@@ -6420,13 +6435,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1140262361251261</v>
+        <v>0.05247225025227043</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F5" s="1">
-        <v>-0.004210236820765642</v>
+        <v>0.0003680418354367679</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -6454,7 +6469,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B6" s="3">
         <v>539</v>
@@ -6463,13 +6478,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.1576994434137291</v>
+        <v>0.07235621521335807</v>
       </c>
       <c r="E6" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F6" s="1">
-        <v>0.03946297046783735</v>
+        <v>0.0202520067965244</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -6497,7 +6512,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B7" s="3">
         <v>344</v>
@@ -6506,13 +6521,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.1744186046511628</v>
+        <v>0.0755813953488372</v>
       </c>
       <c r="E7" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F7" s="1">
-        <v>0.05618213170527102</v>
+        <v>0.02347718693200354</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -6540,7 +6555,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B8" s="3">
         <v>204</v>
@@ -6549,13 +6564,13 @@
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>0.1862745098039216</v>
+        <v>0.09803921568627451</v>
       </c>
       <c r="E8" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F8" s="1">
-        <v>0.0680380368580298</v>
+        <v>0.04593500726944084</v>
       </c>
       <c r="G8" s="1">
         <f>1/(POWER(B8,1.5))</f>
@@ -6583,7 +6598,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B9" s="3">
         <v>136</v>
@@ -6592,13 +6607,13 @@
         <v>6</v>
       </c>
       <c r="D9" s="3">
-        <v>0.2058823529411765</v>
+        <v>0.125</v>
       </c>
       <c r="E9" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F9" s="1">
-        <v>0.08764587999528468</v>
+        <v>0.07289579158316634</v>
       </c>
       <c r="G9" s="1">
         <f>1/(POWER(B9,1.5))</f>
@@ -6626,7 +6641,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B10" s="3">
         <v>92</v>
@@ -6635,13 +6650,13 @@
         <v>7</v>
       </c>
       <c r="D10" s="3">
-        <v>0.2065217391304348</v>
+        <v>0.1195652173913044</v>
       </c>
       <c r="E10" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F10" s="1">
-        <v>0.08828526618454301</v>
+        <v>0.06746100897447069</v>
       </c>
       <c r="G10" s="1">
         <f>1/(POWER(B10,1.5))</f>
@@ -6669,7 +6684,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B11" s="3">
         <v>54</v>
@@ -6678,13 +6693,13 @@
         <v>8</v>
       </c>
       <c r="D11" s="3">
-        <v>0.1666666666666667</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E11" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F11" s="1">
-        <v>0.04843019372077488</v>
+        <v>0.05900690269427744</v>
       </c>
       <c r="G11" s="1">
         <f>1/(POWER(B11,1.5))</f>
@@ -6712,7 +6727,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B12" s="3">
         <v>35</v>
@@ -6721,13 +6736,13 @@
         <v>9</v>
       </c>
       <c r="D12" s="3">
-        <v>0.1714285714285714</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="E12" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F12" s="1">
-        <v>0.05319209848267965</v>
+        <v>0.06218150586888062</v>
       </c>
       <c r="G12" s="1">
         <f>1/(POWER(B12,1.5))</f>
@@ -6755,7 +6770,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B13" s="3">
         <v>17</v>
@@ -6764,13 +6779,13 @@
         <v>10</v>
       </c>
       <c r="D13" s="3">
-        <v>0.2941176470588235</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="E13" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F13" s="1">
-        <v>0.1758811741129317</v>
+        <v>0.1831899092302252</v>
       </c>
       <c r="G13" s="1">
         <f>1/(POWER(B13,1.5))</f>
@@ -6798,7 +6813,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B14" s="3">
         <v>9</v>
@@ -6810,10 +6825,10 @@
         <v>0.2222222222222222</v>
       </c>
       <c r="E14" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F14" s="1">
-        <v>0.1039857492763304</v>
+        <v>0.1701180138053885</v>
       </c>
       <c r="G14" s="1">
         <f>1/(POWER(B14,1.5))</f>
@@ -6841,7 +6856,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B15" s="3">
         <v>5</v>
@@ -6853,10 +6868,10 @@
         <v>0.4</v>
       </c>
       <c r="E15" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F15" s="1">
-        <v>0.2817635270541082</v>
+        <v>0.3478957915831664</v>
       </c>
       <c r="G15" s="1">
         <f>1/(POWER(B15,1.5))</f>
@@ -6901,7 +6916,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -6924,30 +6939,30 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B4" s="3">
         <v>622</v>
@@ -6956,13 +6971,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.1527331189710611</v>
+        <v>0.06752411575562701</v>
       </c>
       <c r="E4" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F4" s="1">
-        <v>0.03449664602516932</v>
+        <v>0.01541990733879335</v>
       </c>
       <c r="G4" s="1">
         <f>1/(POWER(B4,1.5))</f>
@@ -6990,7 +7005,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B5" s="3">
         <v>492</v>
@@ -6999,13 +7014,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1626016260162602</v>
+        <v>0.07723577235772358</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F5" s="1">
-        <v>0.04436515307036838</v>
+        <v>0.02513156394088992</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -7033,7 +7048,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B6" s="3">
         <v>365</v>
@@ -7042,13 +7057,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.1863013698630137</v>
+        <v>0.08493150684931507</v>
       </c>
       <c r="E6" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F6" s="1">
-        <v>0.06806489691712193</v>
+        <v>0.0328272984324814</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -7076,7 +7091,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B7" s="3">
         <v>253</v>
@@ -7085,13 +7100,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.225296442687747</v>
+        <v>0.09486166007905138</v>
       </c>
       <c r="E7" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F7" s="1">
-        <v>0.1070599697418553</v>
+        <v>0.04275745166221771</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -7119,7 +7134,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B8" s="3">
         <v>167</v>
@@ -7128,13 +7143,13 @@
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>0.2275449101796407</v>
+        <v>0.1197604790419162</v>
       </c>
       <c r="E8" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F8" s="1">
-        <v>0.1093084372337489</v>
+        <v>0.0676562706250825</v>
       </c>
       <c r="G8" s="1">
         <f>1/(POWER(B8,1.5))</f>
@@ -7162,7 +7177,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="3">
         <v>126</v>
@@ -7171,13 +7186,13 @@
         <v>6</v>
       </c>
       <c r="D9" s="3">
-        <v>0.2380952380952381</v>
+        <v>0.126984126984127</v>
       </c>
       <c r="E9" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F9" s="1">
-        <v>0.1198587651493463</v>
+        <v>0.07487991856729331</v>
       </c>
       <c r="G9" s="1">
         <f>1/(POWER(B9,1.5))</f>
@@ -7205,7 +7220,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B10" s="3">
         <v>85</v>
@@ -7214,13 +7229,13 @@
         <v>7</v>
       </c>
       <c r="D10" s="3">
-        <v>0.2588235294117647</v>
+        <v>0.1294117647058824</v>
       </c>
       <c r="E10" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F10" s="1">
-        <v>0.1405870564658729</v>
+        <v>0.0773075562890487</v>
       </c>
       <c r="G10" s="1">
         <f>1/(POWER(B10,1.5))</f>
@@ -7248,7 +7263,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B11" s="3">
         <v>65</v>
@@ -7257,13 +7272,13 @@
         <v>8</v>
       </c>
       <c r="D11" s="3">
-        <v>0.2615384615384616</v>
+        <v>0.1230769230769231</v>
       </c>
       <c r="E11" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F11" s="1">
-        <v>0.1433019885925698</v>
+        <v>0.07097271466008942</v>
       </c>
       <c r="G11" s="1">
         <f>1/(POWER(B11,1.5))</f>
@@ -7291,7 +7306,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B12" s="3">
         <v>41</v>
@@ -7300,13 +7315,13 @@
         <v>9</v>
       </c>
       <c r="D12" s="3">
-        <v>0.2926829268292683</v>
+        <v>0.1219512195121951</v>
       </c>
       <c r="E12" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F12" s="1">
-        <v>0.1744464538833765</v>
+        <v>0.06984701109536146</v>
       </c>
       <c r="G12" s="1">
         <f>1/(POWER(B12,1.5))</f>
@@ -7334,7 +7349,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B13" s="3">
         <v>31</v>
@@ -7343,13 +7358,13 @@
         <v>10</v>
       </c>
       <c r="D13" s="3">
-        <v>0.3225806451612903</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="E13" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F13" s="1">
-        <v>0.2043441722153985</v>
+        <v>0.1091861141638115</v>
       </c>
       <c r="G13" s="1">
         <f>1/(POWER(B13,1.5))</f>
@@ -7377,7 +7392,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B14" s="3">
         <v>23</v>
@@ -7386,13 +7401,13 @@
         <v>11</v>
       </c>
       <c r="D14" s="3">
-        <v>0.3043478260869565</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="E14" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F14" s="1">
-        <v>0.1861113531410648</v>
+        <v>0.1218088350614272</v>
       </c>
       <c r="G14" s="1">
         <f>1/(POWER(B14,1.5))</f>
@@ -7420,7 +7435,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B15" s="3">
         <v>15</v>
@@ -7429,13 +7444,13 @@
         <v>12</v>
       </c>
       <c r="D15" s="3">
-        <v>0.3333333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="E15" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F15" s="1">
-        <v>0.2150968603874415</v>
+        <v>0.1478957915831663</v>
       </c>
       <c r="G15" s="1">
         <f>1/(POWER(B15,1.5))</f>
@@ -7463,7 +7478,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B16" s="3">
         <v>10</v>
@@ -7472,13 +7487,13 @@
         <v>13</v>
       </c>
       <c r="D16" s="3">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="E16" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F16" s="1">
-        <v>0.3817635270541082</v>
+        <v>0.2478957915831663</v>
       </c>
       <c r="G16" s="1">
         <f>1/(POWER(B16,1.5))</f>
@@ -7506,7 +7521,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B17" s="3">
         <v>7</v>
@@ -7515,13 +7530,13 @@
         <v>14</v>
       </c>
       <c r="D17" s="3">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E17" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F17" s="1">
-        <v>0.3103349556255368</v>
+        <v>0.233610077297452</v>
       </c>
       <c r="G17" s="1">
         <f>1/(POWER(B17,1.5))</f>
@@ -7549,7 +7564,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B18" s="3">
         <v>6</v>
@@ -7558,13 +7573,13 @@
         <v>15</v>
       </c>
       <c r="D18" s="3">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E18" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F18" s="1">
-        <v>0.2150968603874415</v>
+        <v>0.114562458249833</v>
       </c>
       <c r="G18" s="1">
         <f>1/(POWER(B18,1.5))</f>
@@ -7592,7 +7607,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B19" s="3">
         <v>6</v>
@@ -7601,13 +7616,13 @@
         <v>16</v>
       </c>
       <c r="D19" s="3">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E19" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F19" s="1">
-        <v>0.2150968603874415</v>
+        <v>0.114562458249833</v>
       </c>
       <c r="G19" s="1">
         <f>1/(POWER(B19,1.5))</f>
@@ -7635,7 +7650,7 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B20" s="3">
         <v>5</v>
@@ -7644,13 +7659,13 @@
         <v>17</v>
       </c>
       <c r="D20" s="3">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="E20" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F20" s="1">
-        <v>0.2817635270541082</v>
+        <v>0.1478957915831663</v>
       </c>
       <c r="G20" s="1">
         <f>1/(POWER(B20,1.5))</f>
@@ -7678,7 +7693,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B21" s="3">
         <v>4</v>
@@ -7690,10 +7705,10 @@
         <v>0.25</v>
       </c>
       <c r="E21" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F21" s="1">
-        <v>0.1317635270541082</v>
+        <v>0.1978957915831663</v>
       </c>
       <c r="G21" s="1">
         <f>1/(POWER(B21,1.5))</f>
@@ -7721,7 +7736,7 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B22" s="3">
         <v>4</v>
@@ -7733,10 +7748,10 @@
         <v>0.25</v>
       </c>
       <c r="E22" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F22" s="1">
-        <v>0.1317635270541082</v>
+        <v>0.1978957915831663</v>
       </c>
       <c r="G22" s="1">
         <f>1/(POWER(B22,1.5))</f>
@@ -7764,7 +7779,7 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B23" s="3">
         <v>3</v>
@@ -7776,10 +7791,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="E23" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F23" s="1">
-        <v>0.2150968603874415</v>
+        <v>0.2812291249164997</v>
       </c>
       <c r="G23" s="1">
         <f>1/(POWER(B23,1.5))</f>
@@ -7807,7 +7822,7 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B24" s="3">
         <v>2</v>
@@ -7819,10 +7834,10 @@
         <v>0.5</v>
       </c>
       <c r="E24" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F24" s="1">
-        <v>0.3817635270541082</v>
+        <v>0.4478957915831663</v>
       </c>
       <c r="G24" s="1">
         <f>1/(POWER(B24,1.5))</f>
@@ -7850,7 +7865,7 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B25" s="3">
         <v>2</v>
@@ -7862,10 +7877,10 @@
         <v>0.5</v>
       </c>
       <c r="E25" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F25" s="1">
-        <v>0.3817635270541082</v>
+        <v>0.4478957915831663</v>
       </c>
       <c r="G25" s="1">
         <f>1/(POWER(B25,1.5))</f>
@@ -7893,7 +7908,7 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B26" s="3">
         <v>2</v>
@@ -7905,10 +7920,10 @@
         <v>0.5</v>
       </c>
       <c r="E26" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F26" s="1">
-        <v>0.3817635270541082</v>
+        <v>0.4478957915831663</v>
       </c>
       <c r="G26" s="1">
         <f>1/(POWER(B26,1.5))</f>
@@ -7936,7 +7951,7 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B27" s="3">
         <v>2</v>
@@ -7948,10 +7963,10 @@
         <v>0.5</v>
       </c>
       <c r="E27" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F27" s="1">
-        <v>0.3817635270541082</v>
+        <v>0.4478957915831663</v>
       </c>
       <c r="G27" s="1">
         <f>1/(POWER(B27,1.5))</f>
@@ -7979,7 +7994,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B28" s="3">
         <v>1</v>
@@ -7991,10 +8006,10 @@
         <v>1</v>
       </c>
       <c r="E28" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F28" s="1">
-        <v>0.8817635270541082</v>
+        <v>0.9478957915831663</v>
       </c>
       <c r="G28" s="1">
         <f>1/(POWER(B28,1.5))</f>
@@ -8022,7 +8037,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B29" s="3">
         <v>1</v>
@@ -8034,10 +8049,10 @@
         <v>1</v>
       </c>
       <c r="E29" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F29" s="1">
-        <v>0.8817635270541082</v>
+        <v>0.9478957915831663</v>
       </c>
       <c r="G29" s="1">
         <f>1/(POWER(B29,1.5))</f>
@@ -8065,7 +8080,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B30" s="3">
         <v>1</v>
@@ -8077,10 +8092,10 @@
         <v>1</v>
       </c>
       <c r="E30" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F30" s="1">
-        <v>0.8817635270541082</v>
+        <v>0.9478957915831663</v>
       </c>
       <c r="G30" s="1">
         <f>1/(POWER(B30,1.5))</f>
@@ -8108,7 +8123,7 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B31" s="3">
         <v>1</v>
@@ -8120,10 +8135,10 @@
         <v>1</v>
       </c>
       <c r="E31" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F31" s="1">
-        <v>0.8817635270541082</v>
+        <v>0.9478957915831663</v>
       </c>
       <c r="G31" s="1">
         <f>1/(POWER(B31,1.5))</f>
@@ -8151,7 +8166,7 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B32" s="3">
         <v>1</v>
@@ -8163,10 +8178,10 @@
         <v>1</v>
       </c>
       <c r="E32" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F32" s="1">
-        <v>0.8817635270541082</v>
+        <v>0.9478957915831663</v>
       </c>
       <c r="G32" s="1">
         <f>1/(POWER(B32,1.5))</f>
@@ -8194,7 +8209,7 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B33" s="3">
         <v>1</v>
@@ -8206,10 +8221,10 @@
         <v>1</v>
       </c>
       <c r="E33" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F33" s="1">
-        <v>0.8817635270541082</v>
+        <v>0.9478957915831663</v>
       </c>
       <c r="G33" s="1">
         <f>1/(POWER(B33,1.5))</f>
@@ -8254,7 +8269,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -8277,30 +8292,30 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B4" s="3">
         <v>998</v>
@@ -8309,10 +8324,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="E4" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -8343,7 +8358,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B5" s="3">
         <v>683</v>
@@ -8352,13 +8367,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.09663250366032211</v>
+        <v>0.04978038067349927</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F5" s="1">
-        <v>-0.02160396928556967</v>
+        <v>-0.002323827743334395</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -8386,7 +8401,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B6" s="3">
         <v>95</v>
@@ -8395,13 +8410,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.2210526315789474</v>
+        <v>0.09473684210526316</v>
       </c>
       <c r="E6" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F6" s="1">
-        <v>0.1028161586330556</v>
+        <v>0.0426326336884295</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -8429,7 +8444,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B7" s="3">
         <v>52</v>
@@ -8438,13 +8453,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.25</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="E7" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F7" s="1">
-        <v>0.1317635270541082</v>
+        <v>0.06328040696778173</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -8472,7 +8487,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B8" s="3">
         <v>23</v>
@@ -8481,13 +8496,13 @@
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>0.2608695652173913</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="E8" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F8" s="1">
-        <v>0.1426330922714995</v>
+        <v>0.07833057419186198</v>
       </c>
       <c r="G8" s="1">
         <f>1/(POWER(B8,1.5))</f>
@@ -8515,7 +8530,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B9" s="3">
         <v>14</v>
@@ -8524,13 +8539,13 @@
         <v>6</v>
       </c>
       <c r="D9" s="3">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="E9" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F9" s="1">
-        <v>0.1674778127683939</v>
+        <v>0.09075293444030919</v>
       </c>
       <c r="G9" s="1">
         <f>1/(POWER(B9,1.5))</f>
@@ -8558,7 +8573,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B10" s="3">
         <v>11</v>
@@ -8567,13 +8582,13 @@
         <v>7</v>
       </c>
       <c r="D10" s="3">
-        <v>0.2727272727272727</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="E10" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F10" s="1">
-        <v>0.1544907997813809</v>
+        <v>0.1297139734013482</v>
       </c>
       <c r="G10" s="1">
         <f>1/(POWER(B10,1.5))</f>
@@ -8601,7 +8616,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B11" s="3">
         <v>7</v>
@@ -8610,13 +8625,13 @@
         <v>8</v>
       </c>
       <c r="D11" s="3">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="E11" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F11" s="1">
-        <v>0.1674778127683939</v>
+        <v>0.09075293444030919</v>
       </c>
       <c r="G11" s="1">
         <f>1/(POWER(B11,1.5))</f>
@@ -8661,7 +8676,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -8684,30 +8699,30 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B4" s="3">
         <v>398</v>
@@ -8716,13 +8731,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.1683417085427136</v>
+        <v>0.08542713567839195</v>
       </c>
       <c r="E4" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F4" s="1">
-        <v>0.0501052355968218</v>
+        <v>0.03332292726155829</v>
       </c>
       <c r="G4" s="1">
         <f>1/(POWER(B4,1.5))</f>
@@ -8750,7 +8765,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B5" s="3">
         <v>157</v>
@@ -8759,13 +8774,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.2484076433121019</v>
+        <v>0.1210191082802548</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F5" s="1">
-        <v>0.1301711703662101</v>
+        <v>0.06891489986342111</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -8793,7 +8808,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B6" s="3">
         <v>75</v>
@@ -8802,13 +8817,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.28</v>
+        <v>0.1466666666666667</v>
       </c>
       <c r="E6" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F6" s="1">
-        <v>0.1617635270541082</v>
+        <v>0.094562458249833</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -8836,7 +8851,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B7" s="3">
         <v>43</v>
@@ -8845,13 +8860,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.3023255813953488</v>
+        <v>0.1627906976744186</v>
       </c>
       <c r="E7" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F7" s="1">
-        <v>0.184089108449457</v>
+        <v>0.110686489257585</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -8879,7 +8894,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B8" s="3">
         <v>25</v>
@@ -8888,13 +8903,13 @@
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>0.44</v>
+        <v>0.24</v>
       </c>
       <c r="E8" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F8" s="1">
-        <v>0.3217635270541082</v>
+        <v>0.1878957915831663</v>
       </c>
       <c r="G8" s="1">
         <f>1/(POWER(B8,1.5))</f>
@@ -8922,7 +8937,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B9" s="3">
         <v>17</v>
@@ -8931,13 +8946,13 @@
         <v>6</v>
       </c>
       <c r="D9" s="3">
-        <v>0.4705882352941176</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="E9" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F9" s="1">
-        <v>0.3523517623482258</v>
+        <v>0.1831899092302252</v>
       </c>
       <c r="G9" s="1">
         <f>1/(POWER(B9,1.5))</f>
@@ -8965,7 +8980,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B10" s="3">
         <v>8</v>
@@ -8974,13 +8989,13 @@
         <v>7</v>
       </c>
       <c r="D10" s="3">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="E10" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F10" s="1">
-        <v>0.3817635270541082</v>
+        <v>0.3228957915831663</v>
       </c>
       <c r="G10" s="1">
         <f>1/(POWER(B10,1.5))</f>
@@ -9008,7 +9023,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B11" s="3">
         <v>4</v>
@@ -9020,10 +9035,10 @@
         <v>0.5</v>
       </c>
       <c r="E11" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F11" s="1">
-        <v>0.3817635270541082</v>
+        <v>0.4478957915831663</v>
       </c>
       <c r="G11" s="1">
         <f>1/(POWER(B11,1.5))</f>
@@ -9051,7 +9066,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B12" s="3">
         <v>3</v>
@@ -9063,10 +9078,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E12" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F12" s="1">
-        <v>0.5484301937207748</v>
+        <v>0.614562458249833</v>
       </c>
       <c r="G12" s="1">
         <f>1/(POWER(B12,1.5))</f>
@@ -9094,7 +9109,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B13" s="3">
         <v>3</v>
@@ -9106,10 +9121,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E13" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F13" s="1">
-        <v>0.5484301937207748</v>
+        <v>0.614562458249833</v>
       </c>
       <c r="G13" s="1">
         <f>1/(POWER(B13,1.5))</f>
@@ -9137,7 +9152,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B14" s="3">
         <v>3</v>
@@ -9149,10 +9164,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E14" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F14" s="1">
-        <v>0.5484301937207748</v>
+        <v>0.614562458249833</v>
       </c>
       <c r="G14" s="1">
         <f>1/(POWER(B14,1.5))</f>
@@ -9180,7 +9195,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="3" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B15" s="3">
         <v>3</v>
@@ -9192,10 +9207,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E15" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F15" s="1">
-        <v>0.5484301937207748</v>
+        <v>0.614562458249833</v>
       </c>
       <c r="G15" s="1">
         <f>1/(POWER(B15,1.5))</f>
@@ -9223,7 +9238,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="3" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B16" s="3">
         <v>2</v>
@@ -9235,10 +9250,10 @@
         <v>0.5</v>
       </c>
       <c r="E16" s="3">
-        <v>0.1182364729458918</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="F16" s="1">
-        <v>0.3817635270541082</v>
+        <v>0.4478957915831663</v>
       </c>
       <c r="G16" s="1">
         <f>1/(POWER(B16,1.5))</f>
